--- a/Figure5/Figure 5B-stats.xlsx
+++ b/Figure5/Figure 5B-stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Dropbox (Brain Modulation Lab)/Dengyu/Thal_lexicality_paper/JNS/FiguresandTables/Figure5_stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Documents/GitHub/ThalLexicality/Figure5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2B4D8F-4990-0848-95B4-CBC23EDFAB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C53F9E2-1586-614C-A381-9CBB238A887E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6DDB349C-D52E-7047-99DC-8906A7E1FB65}"/>
   </bookViews>
@@ -32,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t_stat</t>
   </si>
   <si>
     <t>p_val</t>
+  </si>
+  <si>
+    <t>cohen_d</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8DEF5-4AA8-404E-8C6B-02FDF751E263}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,126 +528,251 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-2.43551560442575E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.09412193918355E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.2533910052860298E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.13496543695330299</v>
+      </c>
+      <c r="F2">
+        <v>-0.25920700482980502</v>
+      </c>
+      <c r="G2">
+        <v>-3.76011618090746E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.352469607193655</v>
+      </c>
+      <c r="I2">
+        <v>6.8647628663430198E-3</v>
+      </c>
+      <c r="J2">
+        <v>-0.41946516331341099</v>
+      </c>
+      <c r="K2">
+        <v>-0.15875434727999199</v>
+      </c>
+      <c r="L2">
+        <v>-3.2180003589628102E-2</v>
+      </c>
+      <c r="M2">
+        <v>-0.54727465570672396</v>
+      </c>
+      <c r="N2">
+        <v>-0.46424675026852102</v>
+      </c>
+      <c r="O2">
+        <v>-0.32536497542138598</v>
+      </c>
+      <c r="P2">
+        <v>-0.33445150926619099</v>
+      </c>
+      <c r="Q2">
+        <v>-0.273664353424248</v>
+      </c>
+      <c r="R2">
+        <v>-0.29927824159820998</v>
+      </c>
+      <c r="S2">
+        <v>-0.223489717242426</v>
+      </c>
+      <c r="T2">
+        <v>-0.31211919312564401</v>
+      </c>
+      <c r="U2">
+        <v>-0.34129370235396</v>
+      </c>
+      <c r="V2">
+        <v>-0.24596582876466699</v>
+      </c>
+      <c r="W2">
+        <v>-0.647536258139364</v>
+      </c>
+      <c r="X2">
+        <v>-0.85469998500466604</v>
+      </c>
+      <c r="Y2">
+        <v>-0.986216156741612</v>
+      </c>
+      <c r="Z2">
+        <v>-0.893640686929423</v>
+      </c>
+      <c r="AA2">
+        <v>-0.52874382794452801</v>
+      </c>
+      <c r="AB2">
+        <v>-0.38529512554504602</v>
+      </c>
+      <c r="AC2">
+        <v>-0.40749355787814201</v>
+      </c>
+      <c r="AD2">
+        <v>-0.49566404911164003</v>
+      </c>
+      <c r="AE2">
+        <v>-0.484548710192299</v>
+      </c>
+      <c r="AF2">
+        <v>-0.32606486982264099</v>
+      </c>
+      <c r="AG2">
+        <v>-0.185139510933511</v>
+      </c>
+      <c r="AH2">
+        <v>-0.333995144519243</v>
+      </c>
+      <c r="AI2">
+        <v>-0.43014082072383097</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.24070611964285901</v>
+      </c>
+      <c r="AK2">
+        <v>-9.7908867038592404E-2</v>
+      </c>
+      <c r="AL2">
+        <v>-8.6220296728034301E-2</v>
+      </c>
+      <c r="AM2">
+        <v>-0.33648968991962702</v>
+      </c>
+      <c r="AN2">
+        <v>-0.50504990135510397</v>
+      </c>
+      <c r="AO2">
+        <v>-0.35839011396926701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.86672723584601497</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.93989758537851598</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.66681680534641896</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.35453291545808002</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>7.8950122979465506E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.79560955485384699</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1.8423861715090199E-2</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0.962268060211663</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>5.5651798709289999E-3</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.276985194624432</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.82454085619779505</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>4.26231381661531E-4</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>2.3511433762303299E-3</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>2.88857082419605E-2</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>2.4901706286195601E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>6.4117043238055699E-2</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>4.36352439729445E-2</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>0.12823823583681801</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>3.5707142585424297E-2</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>2.22337211349753E-2</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>9.4965875868423699E-2</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W3" s="1">
         <v>4.6632050197076798E-5</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X3" s="1">
         <v>3.5373376752349599E-7</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y3" s="1">
         <v>1.46643168667697E-8</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z3" s="1">
         <v>1.3809627780620799E-7</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>6.3096326303676599E-4</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>1.03990291975566E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>6.9510252300300102E-3</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>1.25151071901373E-3</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>1.56792108476049E-3</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>2.8559824576168701E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>0.20589265531060599</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>2.5089444351394902E-2</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>4.5508762615596304E-3</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>0.102033477864327</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>0.50088721455459595</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>0.55313975578027097</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>2.4078482361336299E-2</v>
       </c>
-      <c r="AN2">
+      <c r="AN3">
         <v>1.032649790112E-3</v>
       </c>
-      <c r="AO2">
+      <c r="AO3">
         <v>1.66540941961376E-2</v>
       </c>
     </row>
